--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_10_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31891.30897132189</v>
+        <v>6346370.485293051</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31891.30897132189</v>
+        <v>6346370.485293051</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47371.20633709802</v>
+        <v>3999572.238041216</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47371.20633709802</v>
+        <v>3999572.238041216</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610096893.122117</v>
+        <v>63147035.06140787</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12989.82214999507</v>
+        <v>1413032.81427675</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25392.26963136466</v>
+        <v>2734654.036005693</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37794.71711273424</v>
+        <v>4056275.257734638</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>53061.3033862048</v>
+        <v>5349629.496876546</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68042.81091526074</v>
+        <v>6592527.033680746</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>83024.31844431667</v>
+        <v>7835424.570484942</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98549.39930670592</v>
+        <v>9099124.24062247</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>113969.9468357619</v>
+        <v>10342021.77742666</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>129939.5641785405</v>
+        <v>11500589.65453955</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>145222.080192445</v>
+        <v>12743487.19134374</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160504.5962063495</v>
+        <v>13986384.72814793</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>173098.6875062725</v>
+        <v>15256016.12352747</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>185957.6757758925</v>
+        <v>16578362.0158767</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>201692.7177500058</v>
+        <v>17548608.08762997</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218403.2597855425</v>
+        <v>18240239.5731624</v>
       </c>
     </row>
   </sheetData>
